--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FCB1E3-48FA-4EEE-B731-F7B6AA97C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="ProcNote" sheetId="3" r:id="rId3"/>
-    <sheet name="ProcCdoe" sheetId="4" r:id="rId4"/>
+    <sheet name="ProcCode" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -553,14 +554,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>支票:帳號(9)+票號(7)</t>
-  </si>
-  <si>
     <t>處理代碼</t>
-  </si>
-  <si>
-    <t>jsonformat處理說明+備註(例:不足金額)
-支票:金額#RP_CHQUEAMTX(16)</t>
   </si>
   <si>
     <t>Key ID</t>
@@ -899,37 +893,6 @@
     <t>退票(支票號碼、支票面額)</t>
   </si>
   <si>
-    <t>參照ProcCode分頁</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:BatchRepayCode
-01.匯款轉帳
-02.銀行扣款
-03.員工扣款
-04.支票兌現
-05.法院扣薪
-06.理賠金
-07.代收款-債權協商
-09.其他
-11.匯款轉帳預先作業
-90.暫收抵繳</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:RepayType
-1.期款
-2.部分償還
-3.結案
-4.帳管費
-5.火險費
-6.契變手續費
-7.法務費
-9.其他
-11.債協匯入款(虛擬帳號為9510500NNNNNNN)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>00003</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1039,27 +1002,86 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:ReconCode
-P01銀行存款－郵局
-P02銀行存款－新光
+    <t>ProcStsCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayBank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣款銀行</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀扣期款應繳日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayIntDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimald</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.BatchRepayCode
+01:匯款轉帳
+02:銀行扣款
+03:員工扣款
+04:支票兌現
+05:法院扣薪
+06:理賠金
+07:代收款-債權協商
+09:其他
+11:匯款轉帳預先作業
+90:暫收抵繳</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票：帳號(9)+票號(7)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RepayType
+1:期款
+2:部分償還
+3:結案
+4:帳管費
+5:火險費
+6:契變手續費
+7:法務費
+9:其他
+11:債協匯入款(虛擬帳號為9510500NNNNNNN)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ReconCode
+P01:銀行存款－郵局
+P02:銀行存款－新光
 A1~A7 (P03銀行存款－新光匯款轉帳)
-P04銀行存款－台新
-TEM員工扣薪15/非15???
-TCK支票</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcStsCode</t>
+P04:銀行存款－台新
+TEM:員工扣薪15/非15???
+TCK:支票</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">CdCode:ProcStsCode
-0.未檢核
-1.失敗
-2.人工處理
-3.檢核錯誤
-4.檢核正常
+      <t xml:space="preserve">CdCode.ProcStsCode
+0:未檢核
+1:失敗
+2:人工處理
+3:檢核錯誤
+4:檢核正常
 </t>
     </r>
     <r>
@@ -1070,7 +1092,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>5.單筆入帳</t>
+      <t>5:單筆入帳</t>
     </r>
     <r>
       <rPr>
@@ -1081,46 +1103,76 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-6.批次入帳
-7.轉暫收
-D.刪除  
-</t>
+6;批次入帳
+7;轉暫收
+D:刪除  </t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>BatchNo DESC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayBank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣款銀行</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>銀扣期款應繳日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>PayIntDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decimald</t>
+    <t>jsonformat處理說明+備註(例:不足金額)
+支票：金額#RP_CHQUEAMTX(16)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>參照ProcCode分頁
+00003:溢繳
+00004:不足利息[可跨額度暫收抵用]
+00005:積欠期款[可跨額度暫收抵用]
+00101:正負對沖
+00102:提款(借方)
+00103:預先作業
+00104:ACH手續費
+00105:銀扣清算
+00106:特殊摘要
+00110:更正轉帳
+00120:法院
+00201:存款不足
+00202:非委託用戶
+00203:已終止委託用戶
+00204:無此帳號
+00205:收受者統編錯誤
+00206:無此用戶號碼
+00207:用戶號碼不符
+00208:信用卡額度不足
+00209:未開卡
+00210:部分存款不足
+00211:超過扣款限額
+00222:帳戶已結清
+00223:靜止戶
+00224:凍結戶
+00225:帳戶存款遭法院強制執行
+00226:警示戶
+00227:該用戶已死亡
+00228:發動行申請停止入扣帳
+00291:請參考備註一
+00299:其他
+00303:已終止代繳 
+00306:凍結警示戶 
+00307:支票專戶 
+00308:帳號錯誤 
+00309:終止戶 
+00310:身分證不符
+00311:轉出戶 
+00312:拒絕往來戶 
+00313:無此編號 
+00314:編號已存在 
+00316:管制帳戶 
+00317:掛失戶 
+00318:異常帳戶 
+00319:編號非英數 
+00391:期限未扣款 
+00398:其他
+00401:員工扣薪失敗
+00402:扣款不足
+00501:退票(支票號碼、支票面額)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1443,8 +1495,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1536,6 +1588,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1571,6 +1640,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1746,11 +1832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1783,7 +1869,7 @@
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1813,7 +1899,7 @@
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>40</v>
@@ -1828,7 +1914,7 @@
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1970,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1978,10 +2064,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>30</v>
@@ -2062,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="162">
@@ -2082,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="113.4">
@@ -2093,7 +2179,7 @@
         <v>96</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>42</v>
@@ -2102,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4">
@@ -2122,7 +2208,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2133,7 +2219,7 @@
         <v>77</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>29</v>
@@ -2142,7 +2228,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2153,7 +2239,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>31</v>
@@ -2204,10 +2290,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>30</v>
@@ -2216,10 +2302,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="19">
         <v>18</v>
       </c>
@@ -2227,7 +2313,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>56</v>
@@ -2236,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.4">
@@ -2256,7 +2342,7 @@
         <v>600</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2320,7 +2406,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>37</v>
@@ -2340,7 +2426,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>38</v>
@@ -2434,7 +2520,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" location="ProcCdoe!A1" display="參照ProcCode分頁"/>
+    <hyperlink ref="G27" location="ProcCode!A1" display="ProcCode!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2442,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2595,15 +2681,15 @@
         <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2611,10 +2697,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2622,10 +2708,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2633,76 +2719,76 @@
         <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="34" customFormat="1">
       <c r="A18" s="33" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="34" customFormat="1">
       <c r="A19" s="33" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="34" customFormat="1">
       <c r="A20" s="33" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="34" customFormat="1">
       <c r="A21" s="33" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="34" customFormat="1">
       <c r="A22" s="33" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="34" customFormat="1">
       <c r="A23" s="33" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2710,21 +2796,21 @@
         <v>111</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2735,11 +2821,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2940,13 +3026,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F14" s="16">
         <v>3</v>
@@ -2959,13 +3045,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F15" s="16">
         <v>8</v>
@@ -2981,11 +3067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B50" sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2996,402 +3082,402 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FCB1E3-48FA-4EEE-B731-F7B6AA97C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DBEA8A-F93C-4A06-8738-968314FBE0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,16 @@
     <sheet name="ProcNote" sheetId="3" r:id="rId3"/>
     <sheet name="ProcCode" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1107,11 +1116,6 @@
 7;轉暫收
 D:刪除  </t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsonformat處理說明+備註(例:不足金額)
-支票：金額#RP_CHQUEAMTX(16)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1166,6 +1170,11 @@
 00401:員工扣薪失敗
 00402:扣款不足
 00501:退票(支票號碼、支票面額)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonformat處理說明+備註(例：不足金額)
+支票：金額#RP_CHQUEAMTX(16)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1836,7 +1845,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2322,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.4">
@@ -2342,7 +2351,7 @@
         <v>600</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:7">

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DBEA8A-F93C-4A06-8738-968314FBE0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB860C-169A-45B3-A790-F5BA5F8225D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="289">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -175,9 +175,6 @@
   <si>
     <t>MediaDate</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate,BatchNo</t>
   </si>
   <si>
     <t>BatxDetail</t>
@@ -567,10 +564,6 @@
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatxHead(AcDate,BatchNo)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1182,7 +1175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1844,11 +1837,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1859,26 +1852,26 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1887,13 +1880,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1902,74 +1895,70 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="36"/>
-      <c r="C4" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
+    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1992,25 +1981,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>1</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="23">
         <v>8</v>
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -2028,15 +2017,15 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>29</v>
@@ -2045,18 +2034,18 @@
         <v>6</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="178.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>29</v>
@@ -2065,18 +2054,18 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>5</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>30</v>
@@ -2086,30 +2075,30 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>6</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="23">
         <v>8</v>
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>22</v>
@@ -2122,7 +2111,7 @@
       </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -2140,15 +2129,15 @@
       </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>9</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>34</v>
@@ -2157,15 +2146,15 @@
         <v>30</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="162">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>10</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>24</v>
@@ -2177,58 +2166,58 @@
         <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="113.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>11</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="23">
         <v>3</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>12</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>45</v>
-      </c>
       <c r="D21" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="23">
         <v>18</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>13</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>29</v>
@@ -2237,18 +2226,18 @@
         <v>14</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>14</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>31</v>
@@ -2258,12 +2247,12 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>15</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>25</v>
@@ -2276,12 +2265,12 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>16</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>26</v>
@@ -2294,15 +2283,15 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="169.8" customHeight="1">
+    <row r="26" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>17</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>30</v>
@@ -2311,38 +2300,38 @@
         <v>1</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>18</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="32.4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>19</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>34</v>
@@ -2351,15 +2340,15 @@
         <v>600</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>20</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>27</v>
@@ -2372,12 +2361,12 @@
       </c>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>21</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>28</v>
@@ -2389,10 +2378,10 @@
         <v>8</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>22</v>
       </c>
@@ -2403,19 +2392,19 @@
         <v>35</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="23">
         <v>8</v>
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" ht="81">
+    <row r="32" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>23</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>37</v>
@@ -2427,15 +2416,15 @@
         <v>1</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>24</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>38</v>
@@ -2448,68 +2437,68 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>25</v>
       </c>
       <c r="B34" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="D34" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>103</v>
       </c>
       <c r="E34" s="23"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>26</v>
       </c>
       <c r="B35" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D35" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="E35" s="23">
         <v>6</v>
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>27</v>
       </c>
       <c r="B36" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="D36" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E36" s="23"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="D37" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" s="23">
         <v>6</v>
@@ -2545,7 +2534,7 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
@@ -2553,7 +2542,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2564,262 +2553,262 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="B13" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="34" customFormat="1">
-      <c r="A18" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="34" customFormat="1">
-      <c r="A19" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="34" customFormat="1">
-      <c r="A20" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="33" t="s">
+      <c r="B25" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="34" customFormat="1">
-      <c r="A21" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="34" customFormat="1">
-      <c r="A22" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="34" customFormat="1">
-      <c r="A23" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2826,7 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
@@ -2847,17 +2836,17 @@
     <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
@@ -2880,15 +2869,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>34</v>
@@ -2899,18 +2888,18 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -2918,18 +2907,18 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>122</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="16">
         <v>14</v>
@@ -2937,18 +2926,18 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>126</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="16">
         <v>20</v>
@@ -2956,15 +2945,15 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>127</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>128</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>34</v>
@@ -2975,73 +2964,73 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>131</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="16">
         <v>100</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>278</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>280</v>
       </c>
       <c r="F14" s="16">
         <v>3</v>
@@ -3049,18 +3038,18 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>283</v>
       </c>
       <c r="F15" s="16">
         <v>8</v>
@@ -3083,410 +3072,410 @@
       <selection activeCell="B50" sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="31" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="31" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="31" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="31" t="s">
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="31" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="31" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="31" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="31" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="31" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="31" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="31" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="31" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="31" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="31" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="31" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="31" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="31" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="31" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="31" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="31" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="31" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="31" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="31" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="31" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="31" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="31" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="31" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="31" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="31" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="31" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="31" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="31" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="31" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B47" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="31" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="B49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB860C-169A-45B3-A790-F5BA5F8225D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="ProcNote" sheetId="3" r:id="rId3"/>
     <sheet name="ProcCode" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="291">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1170,12 +1169,20 @@
 支票：金額#RP_CHQUEAMTX(16)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>CustNo ASC ,FacmNo ASC ,RepayCode DESC, DetailSeq ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC ,FacmNo ASC ,RepayCode ASC, DetailSeq ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1497,8 +1504,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1590,23 +1597,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1642,23 +1632,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1834,14 +1807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1852,7 +1825,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +1840,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
@@ -1880,7 +1853,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
@@ -1895,7 +1868,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -1906,7 +1879,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
@@ -1919,7 +1892,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -1932,7 +1905,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -1945,7 +1918,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
         <v>56</v>
       </c>
@@ -1958,7 +1931,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="15" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -1999,7 +1972,7 @@
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -2017,7 +1990,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -2037,7 +2010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="178.2">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -2057,7 +2030,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -2075,7 +2048,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -2093,7 +2066,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -2111,7 +2084,7 @@
       </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -2129,7 +2102,7 @@
       </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="19">
         <v>9</v>
       </c>
@@ -2149,7 +2122,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="162">
       <c r="A19" s="19">
         <v>10</v>
       </c>
@@ -2169,7 +2142,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="113.4">
       <c r="A20" s="19">
         <v>11</v>
       </c>
@@ -2189,7 +2162,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="32.4">
       <c r="A21" s="19">
         <v>12</v>
       </c>
@@ -2209,7 +2182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -2229,7 +2202,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="19">
         <v>14</v>
       </c>
@@ -2247,7 +2220,7 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>15</v>
       </c>
@@ -2265,7 +2238,7 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>16</v>
       </c>
@@ -2283,7 +2256,7 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="169.8" customHeight="1">
       <c r="A26" s="19">
         <v>17</v>
       </c>
@@ -2303,7 +2276,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="19">
         <v>18</v>
       </c>
@@ -2323,7 +2296,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="32.4">
       <c r="A28" s="19">
         <v>19</v>
       </c>
@@ -2343,7 +2316,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="19">
         <v>20</v>
       </c>
@@ -2361,7 +2334,7 @@
       </c>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="19">
         <v>21</v>
       </c>
@@ -2381,7 +2354,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="19">
         <v>22</v>
       </c>
@@ -2399,7 +2372,7 @@
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="81">
       <c r="A32" s="19">
         <v>23</v>
       </c>
@@ -2419,7 +2392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="19">
         <v>24</v>
       </c>
@@ -2437,7 +2410,7 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="19">
         <v>25</v>
       </c>
@@ -2453,7 +2426,7 @@
       <c r="E34" s="23"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="19">
         <v>26</v>
       </c>
@@ -2471,7 +2444,7 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="19">
         <v>27</v>
       </c>
@@ -2487,7 +2460,7 @@
       <c r="E36" s="23"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="19">
         <v>28</v>
       </c>
@@ -2518,7 +2491,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" location="ProcCode!A1" display="ProcCode!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G27" location="ProcCode!A1" display="ProcCode!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2526,15 +2499,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
@@ -2542,7 +2515,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -2564,7 +2537,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -2575,7 +2548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -2586,7 +2559,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -2597,7 +2570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -2608,7 +2581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -2619,7 +2592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -2630,7 +2603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -2641,7 +2614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -2652,7 +2625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -2663,7 +2636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
@@ -2674,23 +2647,32 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2701,7 +2683,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -2712,7 +2694,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -2723,7 +2705,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="34" customFormat="1">
       <c r="A18" s="33" t="s">
         <v>250</v>
       </c>
@@ -2734,7 +2716,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="34" customFormat="1">
       <c r="A19" s="33" t="s">
         <v>251</v>
       </c>
@@ -2745,7 +2727,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="34" customFormat="1">
       <c r="A20" s="33" t="s">
         <v>252</v>
       </c>
@@ -2756,7 +2738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="34" customFormat="1">
       <c r="A21" s="33" t="s">
         <v>253</v>
       </c>
@@ -2767,7 +2749,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="34" customFormat="1">
       <c r="A22" s="33" t="s">
         <v>260</v>
       </c>
@@ -2775,10 +2757,10 @@
         <v>271</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="34" customFormat="1">
       <c r="A23" s="33" t="s">
         <v>261</v>
       </c>
@@ -2789,7 +2771,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -2800,7 +2782,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
@@ -2819,14 +2801,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
@@ -2836,17 +2818,17 @@
     <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
@@ -2869,7 +2851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="B6" s="16">
         <v>1</v>
       </c>
@@ -2888,7 +2870,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="16">
         <v>2</v>
       </c>
@@ -2907,7 +2889,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="B8" s="16">
         <v>3</v>
       </c>
@@ -2926,7 +2908,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="B9" s="16">
         <v>4</v>
       </c>
@@ -2945,7 +2927,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="16">
         <v>5</v>
       </c>
@@ -2964,7 +2946,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1">
       <c r="B11" s="16">
         <v>6</v>
       </c>
@@ -2981,7 +2963,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="16">
         <v>7</v>
       </c>
@@ -2998,7 +2980,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="16">
         <v>8</v>
       </c>
@@ -3019,7 +3001,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="B14" s="16">
         <v>9</v>
       </c>
@@ -3038,7 +3020,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="B15" s="16">
         <v>10</v>
       </c>
@@ -3065,20 +3047,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
         <v>245</v>
       </c>
@@ -3086,7 +3068,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
         <v>148</v>
       </c>
@@ -3094,7 +3076,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
         <v>149</v>
       </c>
@@ -3102,7 +3084,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>150</v>
       </c>
@@ -3110,7 +3092,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
         <v>151</v>
       </c>
@@ -3118,7 +3100,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
         <v>152</v>
       </c>
@@ -3126,7 +3108,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
         <v>153</v>
       </c>
@@ -3134,7 +3116,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
         <v>154</v>
       </c>
@@ -3142,7 +3124,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
         <v>155</v>
       </c>
@@ -3150,7 +3132,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
         <v>156</v>
       </c>
@@ -3158,7 +3140,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
         <v>157</v>
       </c>
@@ -3166,7 +3148,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
         <v>246</v>
       </c>
@@ -3174,7 +3156,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
         <v>158</v>
       </c>
@@ -3182,7 +3164,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
         <v>159</v>
       </c>
@@ -3190,7 +3172,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
         <v>160</v>
       </c>
@@ -3198,7 +3180,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
         <v>161</v>
       </c>
@@ -3206,7 +3188,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
         <v>162</v>
       </c>
@@ -3214,7 +3196,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
         <v>163</v>
       </c>
@@ -3222,7 +3204,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
         <v>164</v>
       </c>
@@ -3230,7 +3212,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
         <v>165</v>
       </c>
@@ -3238,7 +3220,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
         <v>166</v>
       </c>
@@ -3246,7 +3228,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
         <v>167</v>
       </c>
@@ -3254,7 +3236,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
         <v>168</v>
       </c>
@@ -3262,7 +3244,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
         <v>169</v>
       </c>
@@ -3270,7 +3252,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
         <v>170</v>
       </c>
@@ -3278,7 +3260,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
         <v>171</v>
       </c>
@@ -3286,7 +3268,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
         <v>172</v>
       </c>
@@ -3294,7 +3276,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
         <v>173</v>
       </c>
@@ -3302,7 +3284,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
         <v>174</v>
       </c>
@@ -3310,7 +3292,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
         <v>175</v>
       </c>
@@ -3318,7 +3300,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
         <v>176</v>
       </c>
@@ -3326,7 +3308,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
         <v>177</v>
       </c>
@@ -3334,7 +3316,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
         <v>178</v>
       </c>
@@ -3342,7 +3324,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
         <v>179</v>
       </c>
@@ -3350,7 +3332,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
         <v>180</v>
       </c>
@@ -3358,7 +3340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
         <v>181</v>
       </c>
@@ -3366,7 +3348,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
         <v>182</v>
       </c>
@@ -3374,7 +3356,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
         <v>183</v>
       </c>
@@ -3382,7 +3364,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
         <v>184</v>
       </c>
@@ -3390,7 +3372,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
         <v>185</v>
       </c>
@@ -3398,7 +3380,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
         <v>186</v>
       </c>
@@ -3406,7 +3388,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
         <v>187</v>
       </c>
@@ -3414,7 +3396,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
         <v>188</v>
       </c>
@@ -3422,7 +3404,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
         <v>189</v>
       </c>
@@ -3430,7 +3412,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
         <v>190</v>
       </c>
@@ -3438,7 +3420,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
         <v>191</v>
       </c>
@@ -3446,7 +3428,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
         <v>192</v>
       </c>
@@ -3454,7 +3436,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
         <v>193</v>
       </c>
@@ -3462,7 +3444,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
         <v>194</v>
       </c>
@@ -3470,7 +3452,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
         <v>195</v>
       </c>
